--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3416619.851430171</v>
+        <v>3520853.559823619</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7838714.313745719</v>
+        <v>7847627.204997325</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>323.97084177309</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>134.8811697344902</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>41.4577705058044</v>
+        <v>99.15382937807092</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +913,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>32.64801326419395</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>274.1686863940909</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>119.7713036206046</v>
       </c>
       <c r="E7" t="n">
-        <v>111.5166062416797</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.9960986818934634</v>
       </c>
       <c r="U8" t="n">
-        <v>218.1690567639037</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>161.7889189752525</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>70.79346672328447</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695798</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>166.3208822291556</v>
+        <v>21.35866177150499</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1675,7 @@
         <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819371</v>
+        <v>113.7379149844577</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>123.9815576456816</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>9.570729811036772</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>6.228861054228188</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>56.49518623013216</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>50.49265242093141</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>34.67929910923817</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>212.3267021497095</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3004,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.94435783112388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>26.70391688093253</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>143.2091541404069</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>72.01539947949729</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>258.0279804307054</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3554,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>103.1686991936193</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>187.792060649081</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>102.9012384238807</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3946,22 +3948,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>174.7683347992597</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>103.8146543619969</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.601998493312</v>
+        <v>1283.162304328173</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.358723975039</v>
+        <v>914.1997873877617</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>914.1997873877617</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533245</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.201838557433</v>
+        <v>1669.762144392295</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1795.587554981572</v>
+        <v>1433.707330379907</v>
       </c>
       <c r="T4" t="n">
-        <v>1573.820939551098</v>
+        <v>1433.707330379907</v>
       </c>
       <c r="U4" t="n">
-        <v>1573.820939551098</v>
+        <v>1144.588992883744</v>
       </c>
       <c r="V4" t="n">
-        <v>1319.136451345211</v>
+        <v>1144.588992883744</v>
       </c>
       <c r="W4" t="n">
-        <v>1029.71928130825</v>
+        <v>855.1718228467838</v>
       </c>
       <c r="X4" t="n">
-        <v>1029.71928130825</v>
+        <v>855.1718228467838</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>634.3792437032537</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796256</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>563.5047572728752</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E5" t="n">
-        <v>563.5047572728752</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>152.5188524832676</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>141.4868063686682</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2332.07795407525</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.7508393439803</v>
+        <v>628.5134590629166</v>
       </c>
       <c r="C7" t="n">
-        <v>572.8146564160734</v>
+        <v>628.5134590629166</v>
       </c>
       <c r="D7" t="n">
-        <v>422.6980170037376</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W7" t="n">
-        <v>969.7403902419976</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X7" t="n">
-        <v>741.7508393439803</v>
+        <v>1030.954503036686</v>
       </c>
       <c r="Y7" t="n">
-        <v>741.7508393439803</v>
+        <v>810.1619238931563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3214.308992851526</v>
       </c>
       <c r="U8" t="n">
-        <v>3105.233036999167</v>
+        <v>2960.778516125362</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.233036999167</v>
+        <v>2629.715628781791</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.233036999167</v>
+        <v>2276.946973511677</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>1903.481215250597</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1513.341883274785</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.0519063245722</v>
+        <v>431.1278029579779</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>431.1278029579779</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983421</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>782.4929502983421</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y10" t="n">
-        <v>561.7003711548119</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5048,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.9279362553153</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553153</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429798</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429798</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429798</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1809.460189369949</v>
+        <v>1955.886674680705</v>
       </c>
       <c r="V13" t="n">
-        <v>1554.775701164062</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W13" t="n">
-        <v>1265.358531127102</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X13" t="n">
-        <v>1037.368980229085</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y13" t="n">
-        <v>816.5764010855548</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5278,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400746</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400746</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400746</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576817</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>219.0505596597715</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>219.0505596597715</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648822</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611861</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713844</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703141</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5500,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5543,10 +5545,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5558,7 +5560,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557012</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>3060.83890577277</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>3658.217393399322</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>3997.308687575531</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.872235754094</v>
+        <v>3205.31468543348</v>
       </c>
       <c r="C19" t="n">
-        <v>853.9360528261868</v>
+        <v>3036.378502505574</v>
       </c>
       <c r="D19" t="n">
-        <v>703.8194134138513</v>
+        <v>2886.261863093238</v>
       </c>
       <c r="E19" t="n">
-        <v>555.9063198314584</v>
+        <v>2738.348769510845</v>
       </c>
       <c r="F19" t="n">
-        <v>409.0163723335482</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>241.8202730484284</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>100.1084418906266</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487569</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831767</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.30283062588</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W19" t="n">
-        <v>1653.30283062588</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X19" t="n">
-        <v>1425.313279727863</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.520700584333</v>
+        <v>3386.96315026372</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168599</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5771,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>2878.328163333972</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3475.706650960524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>4103.30461451513</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>4655.214344754417</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P21" t="n">
-        <v>4655.214344754417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2940.578503903502</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2771.642320975595</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>2714.576476298694</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>2566.663382716301</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2419.773435218391</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673938</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018136</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3860.426268812249</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3571.009098775288</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3343.019547877271</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3122.226968733741</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>2381.235169913446</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>2978.613657539998</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>3606.211621094605</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>4158.121351333892</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3028.451182298828</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>2859.514999370921</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>2709.398359958585</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4639.830473185531</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4456.975638840436</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4237.374173863377</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3948.298947207575</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3948.298947207575</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>3658.881777170614</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>3430.892226272597</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>3210.099647129067</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6266,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3194.624135499465</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4588.757853591159</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4369.1563886141</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4369.1563886141</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>4114.471900408214</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>3825.054730371253</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>3597.065179473235</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.272600329705</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511905</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232836</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>120.7903164630552</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>120.7903164630552</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4296.276903052963</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4041.592414847077</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3752.175244810116</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3192.420589669522</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C37" t="n">
-        <v>3023.484406741615</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741615</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053497</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4435.235490296429</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U37" t="n">
-        <v>4146.160263640627</v>
+        <v>4180.29829063852</v>
       </c>
       <c r="V37" t="n">
-        <v>3891.47577543474</v>
+        <v>4180.29829063852</v>
       </c>
       <c r="W37" t="n">
-        <v>3602.05860539778</v>
+        <v>3890.88112060156</v>
       </c>
       <c r="X37" t="n">
-        <v>3374.069054499762</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y37" t="n">
-        <v>3374.069054499762</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7202,19 +7204,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167293</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7366,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1498.696903704119</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="41">
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7630,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8064,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>224.3355197601779</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>119.8635921600884</v>
+        <v>264.8258126177391</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>66.09406519747961</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>16.3131552005421</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>135.8503182118945</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.03697526433717</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>92.12028678808002</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>36.41624546988362</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.8825942891901</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238278</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>146.3469868924064</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>74.19629618688154</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.6402955209709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.5907959652914</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>142.9753202488372</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.390050847791</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>28.1564939585387</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>64.34558267474705</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>64.34558267474715</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>114.7699989900979</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>686508.6196132187</v>
+        <v>695421.5108648249</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.10421944</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.10421944</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.596890472448789e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137930.4104072219</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89134.17909312015</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312017</v>
       </c>
-      <c r="C4" t="n">
-        <v>89134.1790931202</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312021</v>
-      </c>
       <c r="E4" t="n">
-        <v>9947.14432176909</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768974</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768961</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768967</v>
+        <v>9947.144321768943</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.14432176895</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768948</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768959</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768888</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766349.2282576439</v>
+        <v>-586156.3292985237</v>
       </c>
       <c r="C6" t="n">
-        <v>562395.5174699492</v>
+        <v>358956.7758578429</v>
       </c>
       <c r="D6" t="n">
-        <v>562395.5174699492</v>
+        <v>562395.517469949</v>
       </c>
       <c r="E6" t="n">
-        <v>310128.4687602237</v>
+        <v>310128.4687602244</v>
       </c>
       <c r="F6" t="n">
+        <v>635540.930567579</v>
+      </c>
+      <c r="G6" t="n">
         <v>635540.9305675793</v>
       </c>
-      <c r="G6" t="n">
-        <v>635540.9305675789</v>
-      </c>
       <c r="H6" t="n">
-        <v>635540.9305675789</v>
+        <v>635540.9305675791</v>
       </c>
       <c r="I6" t="n">
-        <v>635540.9305675796</v>
+        <v>635540.9305675791</v>
       </c>
       <c r="J6" t="n">
-        <v>418009.7281703019</v>
+        <v>467935.7527575967</v>
       </c>
       <c r="K6" t="n">
-        <v>635540.9305675792</v>
+        <v>586430.8378615251</v>
       </c>
       <c r="L6" t="n">
-        <v>635540.9305675792</v>
+        <v>635540.9305675791</v>
       </c>
       <c r="M6" t="n">
-        <v>550485.9026320676</v>
+        <v>550485.9026320674</v>
       </c>
       <c r="N6" t="n">
+        <v>635540.9305675795</v>
+      </c>
+      <c r="O6" t="n">
+        <v>635540.9305675791</v>
+      </c>
+      <c r="P6" t="n">
         <v>635540.9305675793</v>
-      </c>
-      <c r="O6" t="n">
-        <v>635540.9305675792</v>
-      </c>
-      <c r="P6" t="n">
-        <v>635540.9305675792</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26703,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>41.30204999791755</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>247.0492003377716</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>148.3112548256375</v>
+        <v>95.50863098366656</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>261.9597511231265</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>95.56241428437812</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>28.84416939760779</v>
       </c>
       <c r="E7" t="n">
-        <v>34.91735640488943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>202.9218714577267</v>
       </c>
       <c r="U8" t="n">
-        <v>32.82611519499832</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>5.457902123375334</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>77.82200629492789</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30229,10 +30231,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30277,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.996113090560986e-14</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>434.178635838203</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32236,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32318,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N18" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32491,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32546,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.960367665998</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,19 +32788,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32965,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33023,31 +33025,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>565.8030433278964</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>744.7005224868051</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>195.8560084902135</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33971,28 +33973,28 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>297.7596336167232</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>398.1179220955534</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>500.4415752611932</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>591.2668520422184</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>291.5823913937585</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35966,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N18" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,10 +36138,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36673,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>423.6690094058781</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>613.3588104034718</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>55.87423440419198</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>163.785226202393</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37795,13 +37797,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>259.5635423156792</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>357.8453308167487</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3520853.559823619</v>
+        <v>3516799.434064239</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7847627.204997325</v>
+        <v>7847627.204997323</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>134.8811697344902</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>359.2470391666262</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>99.15382937807092</v>
+        <v>169.0331037720981</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>274.1686863940909</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>96.32693285396839</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>119.7713036206046</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>66.21777907196862</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9960986818934634</v>
+        <v>125.9673299442115</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>70.79346672328447</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>65.99480013030499</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>21.35866177150499</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.7379149844577</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.570729811036772</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2055,19 +2055,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>212.3267021497095</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>104.7777418077832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>26.70391688093253</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>258.0279804307054</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>187.792060649081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>174.7683347992597</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.8146543619969</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1283.162304328173</v>
+        <v>825.1084884956169</v>
       </c>
       <c r="C2" t="n">
-        <v>914.1997873877617</v>
+        <v>825.1084884956169</v>
       </c>
       <c r="D2" t="n">
-        <v>914.1997873877617</v>
+        <v>825.1084884956169</v>
       </c>
       <c r="E2" t="n">
-        <v>777.9561815953474</v>
+        <v>825.1084884956169</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>414.1225837060094</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.762144392295</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.762144392295</v>
+        <v>1211.708328559739</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>452.7307788730139</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>452.7307788730139</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>452.7307788730139</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1433.707330379907</v>
+        <v>1465.705611213792</v>
       </c>
       <c r="T4" t="n">
-        <v>1433.707330379907</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="U4" t="n">
-        <v>1144.588992883744</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="V4" t="n">
-        <v>1144.588992883744</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="W4" t="n">
-        <v>855.1718228467838</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X4" t="n">
-        <v>855.1718228467838</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y4" t="n">
-        <v>634.3792437032537</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1555.338782035317</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2332.07795407525</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.938622099438</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.5134590629166</v>
+        <v>844.5803025616252</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5134590629166</v>
+        <v>675.6441196337183</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>525.5274802213826</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>377.6143866389895</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>230.7244391410791</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>230.7244391410791</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V7" t="n">
-        <v>1548.361223971664</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W7" t="n">
-        <v>1258.944053934704</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X7" t="n">
-        <v>1030.954503036686</v>
+        <v>1065.372881705155</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.1619238931563</v>
+        <v>844.5803025616252</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513.341883274785</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1144.379366334374</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276231</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3214.308992851526</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="U8" t="n">
-        <v>2960.778516125362</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="V8" t="n">
-        <v>2629.715628781791</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="W8" t="n">
-        <v>2276.946973511677</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X8" t="n">
-        <v>1903.481215250597</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1513.341883274785</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.1278029579779</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>431.1278029579779</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>651.920382101508</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.1278029579779</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5029,40 +5029,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>849.5024441107445</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>699.3858046984087</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>551.4727111160156</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1955.886674680705</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.202186474818</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W13" t="n">
-        <v>1411.785016437858</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.79546553984</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.0028863963103</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="14">
@@ -5272,52 +5272,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3205.31468543348</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>3036.378502505574</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>2886.261863093238</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>2738.348769510845</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3897.172899444211</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>3607.75572940725</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>3607.75572940725</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>3386.96315026372</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168599</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492577</v>
@@ -5791,13 +5791,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,13 +5840,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.613315601761</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>888.6771326738537</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>738.560493261518</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>590.6473996791249</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V31" t="n">
-        <v>1977.461080510508</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.043910473548</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.05435957553</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.261780432</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,10 +6700,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6779,22 +6779,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556945</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>415.5933575433587</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>267.6802639609656</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>120.7903164630552</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>120.7903164630552</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,13 +6928,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,25 +7016,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2497.745796000625</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3260.450525729772</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.514342801865</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.39770338953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4180.29829063852</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4180.29829063852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3890.88112060156</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3662.891569703542</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3442.098990560012</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,13 +7153,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7204,19 +7204,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.696903704119</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.279733667159</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,10 +7493,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U43" t="n">
-        <v>1983.7822433412</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.097755135313</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>224.3355197601779</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.42624789262625</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>264.8258126177391</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.09406519747961</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>135.8503182118945</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>36.41624546988362</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>74.19629618688154</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>40.64330621514807</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>15.00954930701832</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>113.5907959652914</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>28.1564939585387</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>64.34558267474705</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>27.763115743574</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.10421944</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="I2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121055</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.596890472448789e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26420,7 +26420,7 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312017</v>
@@ -26429,13 +26429,13 @@
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768948</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768943</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26453,7 +26453,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768888</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-586156.3292985237</v>
+        <v>-586156.3292985241</v>
       </c>
       <c r="C6" t="n">
-        <v>358956.7758578429</v>
+        <v>358956.7758578431</v>
       </c>
       <c r="D6" t="n">
-        <v>562395.517469949</v>
+        <v>562395.5174699487</v>
       </c>
       <c r="E6" t="n">
-        <v>310128.4687602244</v>
+        <v>309781.0895058677</v>
       </c>
       <c r="F6" t="n">
-        <v>635540.930567579</v>
+        <v>635193.5513132225</v>
       </c>
       <c r="G6" t="n">
-        <v>635540.9305675793</v>
+        <v>635193.5513132226</v>
       </c>
       <c r="H6" t="n">
-        <v>635540.9305675791</v>
+        <v>635193.5513132223</v>
       </c>
       <c r="I6" t="n">
-        <v>635540.9305675791</v>
+        <v>635193.5513132225</v>
       </c>
       <c r="J6" t="n">
-        <v>467935.7527575967</v>
+        <v>467588.37350324</v>
       </c>
       <c r="K6" t="n">
-        <v>586430.8378615251</v>
+        <v>586083.4586071682</v>
       </c>
       <c r="L6" t="n">
-        <v>635540.9305675791</v>
+        <v>635193.5513132222</v>
       </c>
       <c r="M6" t="n">
-        <v>550485.9026320674</v>
+        <v>550138.5233777105</v>
       </c>
       <c r="N6" t="n">
-        <v>635540.9305675795</v>
+        <v>635193.5513132222</v>
       </c>
       <c r="O6" t="n">
-        <v>635540.9305675791</v>
+        <v>635193.5513132224</v>
       </c>
       <c r="P6" t="n">
-        <v>635540.9305675793</v>
+        <v>635193.5513132223</v>
       </c>
     </row>
   </sheetData>
@@ -26703,10 +26703,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27014,10 +27014,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>247.0492003377716</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>52.30066360632782</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>95.50863098366656</v>
+        <v>25.62935658963934</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>95.56241428437812</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>289.9110058020852</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>28.84416939760779</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>78.53723584235216</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>202.9218714577267</v>
+        <v>77.95064019540861</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>77.82200629492789</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.996113090560986e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30231,10 +30231,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.996113090560986e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31861,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32083,16 +32083,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>491.1355220041058</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32314,31 +32314,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>632.5879274568745</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>565.8030433278964</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33262,31 +33262,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33499,7 +33499,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>744.7005224868051</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.8560084902135</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,10 +33891,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>346.9084613860368</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34213,13 +34213,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>396.970088694367</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>591.2668520422184</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>349.0014880820875</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>490.4538935348562</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>423.6690094058781</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>613.3588104034718</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.87423440419198</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>212.9340539717066</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>254.8360547723487</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3516799.434064239</v>
+        <v>3518559.964367024</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>359.2470391666262</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>54.67418615252954</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>103.258801432719</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>169.0331037720981</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>208.0568180628444</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>96.32693285396839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>66.21777907196862</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>251.6719641693177</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>125.9673299442115</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="12">
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>65.99480013030499</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>104.1233804225859</v>
+        <v>107.317805417867</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>51.36569740310337</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>38.61213096654769</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.1084884956169</v>
+        <v>494.0456011520461</v>
       </c>
       <c r="C2" t="n">
-        <v>825.1084884956169</v>
+        <v>125.0830842116344</v>
       </c>
       <c r="D2" t="n">
-        <v>825.1084884956169</v>
+        <v>125.0830842116344</v>
       </c>
       <c r="E2" t="n">
-        <v>825.1084884956169</v>
+        <v>125.0830842116344</v>
       </c>
       <c r="F2" t="n">
-        <v>414.1225837060094</v>
+        <v>118.1375834624309</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>106.4732372271239</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>106.4732372271239</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4366,16 +4366,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1601.84766053555</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1211.708328559739</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,13 +4412,13 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429757</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744474</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
         <v>1552.492103330613</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>937.3909343092797</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>768.4547513813728</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>618.3381119690371</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>470.425018386644</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>323.5350708887336</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>155.5486061970122</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4488,16 +4488,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1465.705611213792</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1242.727130408528</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1242.727130408528</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1242.727130408528</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1242.727130408528</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>1014.73757951051</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>1119.039399139519</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2513.328941997115</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.5803025616252</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>675.6441196337183</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>525.5274802213826</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>377.6143866389895</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>230.7244391410791</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>230.7244391410791</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.46409084602</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.46409084602</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640133</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.362432603173</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.372881705155</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.5803025616252</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1901.535346136983</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1532.572829196572</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1532.572829196572</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1146.784576598327</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>735.79867180872</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>320.7262216537164</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3088.075425919891</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3088.075425919891</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3088.075425919891</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2735.306770649777</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2288.135186201105</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1018.438627038651</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>849.5024441107445</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>699.3858046984087</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>551.4727111160156</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1420.879671012421</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1200.087091868891</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5418,22 +5418,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>636.6680198981028</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C28" t="n">
-        <v>467.7318369701959</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1039.109063871873</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y28" t="n">
-        <v>818.3164847283425</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,10 +6700,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7083,10 +7083,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7320,10 +7320,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7496,19 +7496,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2407.960931088798</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7736,19 +7736,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>38.59775584152675</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>79.42624789262625</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>121.5862749664512</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>27.763115743574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>182.9484181982414</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.10421944</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244628</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132558</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
@@ -26349,13 +26349,13 @@
         <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121055</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26392,10 +26392,10 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605454</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26420,28 +26420,28 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312024</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312017</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.144321768979</v>
+      </c>
+      <c r="F4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9947.144321768948</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="K4" t="n">
         <v>9947.144321768897</v>
@@ -26456,7 +26456,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-586156.3292985241</v>
+        <v>-586156.3292985238</v>
       </c>
       <c r="C6" t="n">
-        <v>358956.7758578431</v>
+        <v>358956.7758578428</v>
       </c>
       <c r="D6" t="n">
-        <v>562395.5174699487</v>
+        <v>562395.5174699493</v>
       </c>
       <c r="E6" t="n">
-        <v>309781.0895058677</v>
+        <v>310093.7308347884</v>
       </c>
       <c r="F6" t="n">
-        <v>635193.5513132225</v>
+        <v>635506.1926421436</v>
       </c>
       <c r="G6" t="n">
-        <v>635193.5513132226</v>
+        <v>635506.1926421435</v>
       </c>
       <c r="H6" t="n">
-        <v>635193.5513132223</v>
+        <v>635506.1926421436</v>
       </c>
       <c r="I6" t="n">
-        <v>635193.5513132225</v>
+        <v>635506.1926421437</v>
       </c>
       <c r="J6" t="n">
-        <v>467588.37350324</v>
+        <v>467901.014832161</v>
       </c>
       <c r="K6" t="n">
-        <v>586083.4586071682</v>
+        <v>586396.0999360891</v>
       </c>
       <c r="L6" t="n">
-        <v>635193.5513132222</v>
+        <v>635506.1926421436</v>
       </c>
       <c r="M6" t="n">
-        <v>550138.5233777105</v>
+        <v>550451.1647066318</v>
       </c>
       <c r="N6" t="n">
-        <v>635193.5513132222</v>
+        <v>635506.1926421436</v>
       </c>
       <c r="O6" t="n">
-        <v>635193.5513132224</v>
+        <v>635506.192642144</v>
       </c>
       <c r="P6" t="n">
-        <v>635193.5513132223</v>
+        <v>635506.1926421437</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27014,10 +27014,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27038,10 +27038,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27260,10 +27260,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>52.30066360632782</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>11.03572651994096</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>43.99270772240988</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,10 +27587,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>25.62935658963934</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>174.6770236006361</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>289.9110058020852</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>78.53723584235216</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>17.26178070013006</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>42.93580021800278</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>77.95064019540861</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,7 +28061,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>118.0986533615246</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31861,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32086,7 +32086,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32101,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34216,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>362.8934092184361</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34231,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>568.1422977634695</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35509,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37879,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
